--- a/ExcelToDbf/Data/Example1.xlsx
+++ b/ExcelToDbf/Data/Example1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyo\OneDrive\Документы\Visual Studio 2017\Projects\DomofonExcelToDbf\ExcelToDbf\bin\Debug\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyo\Documents\Visual Studio 2015\Projects\DomofonExcelToDbf\ExcelToDbf\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AEBED1-7E58-475B-9EDC-90E86A51C99E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="7515"/>
+    <workbookView xWindow="315" yWindow="1560" windowWidth="28485" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,9 +126,6 @@
     <t>Путин Пётр Владимирович</t>
   </si>
   <si>
-    <t>Большаков Тихон Евсеевич</t>
-  </si>
-  <si>
     <t>Шашков Александр Дамирович</t>
   </si>
   <si>
@@ -521,9 +519,6 @@
     <t>Савина Елена Вадимовна</t>
   </si>
   <si>
-    <t>Васильева Елена Донатовна</t>
-  </si>
-  <si>
     <t>Уваров Эдуард Иванович</t>
   </si>
   <si>
@@ -1550,16 +1545,22 @@
     <t>Итого:</t>
   </si>
   <si>
-    <t>Пропуск</t>
-  </si>
-  <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>Данные от 02.04.2006</t>
+  </si>
+  <si>
+    <t>Данные от 15.04.2006</t>
+  </si>
+  <si>
+    <t>Данные от 21.04.2006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1999,11 +2000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="E509" sqref="E509"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2022,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2030,7 +2031,7 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2044,7 +2045,7 @@
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2053,19 +2054,19 @@
     </row>
     <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -2197,7 +2198,7 @@
     </row>
     <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -2638,21 +2639,13 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
-        <v>32</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="3">
-        <v>76633272</v>
-      </c>
-      <c r="E40" s="6">
-        <v>112.47</v>
-      </c>
-      <c r="F40" s="7">
-        <v>38612</v>
-      </c>
+      <c r="B40" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2660,7 +2653,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="3">
         <v>79167779</v>
@@ -2678,7 +2671,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="3">
         <v>35488364</v>
@@ -2696,7 +2689,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="3">
         <v>72455723</v>
@@ -2714,7 +2707,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="3">
         <v>18330857</v>
@@ -2732,7 +2725,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="3">
         <v>67601685</v>
@@ -2750,7 +2743,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="3">
         <v>75297371</v>
@@ -2768,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="3">
         <v>29083688</v>
@@ -2786,7 +2779,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="3">
         <v>16229429</v>
@@ -2804,7 +2797,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="3">
         <v>26459856</v>
@@ -2822,7 +2815,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="3">
         <v>55335846</v>
@@ -2840,7 +2833,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="3">
         <v>11677389</v>
@@ -2858,7 +2851,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" s="3">
         <v>92960749</v>
@@ -2876,7 +2869,7 @@
         <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="3">
         <v>60148328</v>
@@ -2894,7 +2887,7 @@
         <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="3">
         <v>83785110</v>
@@ -2912,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="3">
         <v>59034770</v>
@@ -2930,7 +2923,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="3">
         <v>37710800</v>
@@ -2948,7 +2941,7 @@
         <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" s="3">
         <v>73322053</v>
@@ -2966,7 +2959,7 @@
         <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="3">
         <v>82539830</v>
@@ -2984,7 +2977,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="3">
         <v>87657590</v>
@@ -3002,7 +2995,7 @@
         <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="3">
         <v>34104153</v>
@@ -3020,7 +3013,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="3">
         <v>51933401</v>
@@ -3038,7 +3031,7 @@
         <v>54</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62" s="3">
         <v>31194561</v>
@@ -3056,7 +3049,7 @@
         <v>55</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="3">
         <v>91474059</v>
@@ -3074,7 +3067,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="3">
         <v>90403394</v>
@@ -3092,7 +3085,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D65" s="3">
         <v>44757345</v>
@@ -3110,7 +3103,7 @@
         <v>58</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="3">
         <v>43841613</v>
@@ -3128,7 +3121,7 @@
         <v>59</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="3">
         <v>23476712</v>
@@ -3146,7 +3139,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="3">
         <v>34555484</v>
@@ -3164,7 +3157,7 @@
         <v>61</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D69" s="3">
         <v>68092151</v>
@@ -3182,7 +3175,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="3">
         <v>62211109</v>
@@ -3200,7 +3193,7 @@
         <v>63</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="3">
         <v>23546667</v>
@@ -3218,7 +3211,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="3">
         <v>15257473</v>
@@ -3236,7 +3229,7 @@
         <v>65</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="3">
         <v>68919907</v>
@@ -3254,7 +3247,7 @@
         <v>66</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="3">
         <v>87065847</v>
@@ -3272,7 +3265,7 @@
         <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="3">
         <v>36580633</v>
@@ -3290,7 +3283,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="3">
         <v>36545421</v>
@@ -3308,7 +3301,7 @@
         <v>69</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="3">
         <v>22038971</v>
@@ -3326,7 +3319,7 @@
         <v>70</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="3">
         <v>34373756</v>
@@ -3344,7 +3337,7 @@
         <v>71</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" s="3">
         <v>35352832</v>
@@ -3362,7 +3355,7 @@
         <v>72</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="3">
         <v>31097334</v>
@@ -3380,7 +3373,7 @@
         <v>73</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" s="3">
         <v>11131712</v>
@@ -3398,7 +3391,7 @@
         <v>74</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" s="3">
         <v>84207173</v>
@@ -3416,7 +3409,7 @@
         <v>75</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D83" s="3">
         <v>25837832</v>
@@ -3434,7 +3427,7 @@
         <v>76</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D84" s="3">
         <v>84896774</v>
@@ -3452,7 +3445,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D85" s="3">
         <v>34866152</v>
@@ -3470,7 +3463,7 @@
         <v>78</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D86" s="3">
         <v>24035878</v>
@@ -3488,7 +3481,7 @@
         <v>79</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" s="3">
         <v>20524821</v>
@@ -3506,7 +3499,7 @@
         <v>80</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D88" s="3">
         <v>86140221</v>
@@ -3524,7 +3517,7 @@
         <v>81</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D89" s="3">
         <v>73133498</v>
@@ -3542,7 +3535,7 @@
         <v>82</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D90" s="3">
         <v>83557578</v>
@@ -3560,7 +3553,7 @@
         <v>83</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91" s="3">
         <v>92541186</v>
@@ -3578,7 +3571,7 @@
         <v>84</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D92" s="3">
         <v>78304190</v>
@@ -3596,7 +3589,7 @@
         <v>85</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="3">
         <v>93921089</v>
@@ -3614,7 +3607,7 @@
         <v>86</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D94" s="3">
         <v>78319240</v>
@@ -3632,7 +3625,7 @@
         <v>87</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D95" s="3">
         <v>29661426</v>
@@ -3650,7 +3643,7 @@
         <v>88</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D96" s="3">
         <v>22769727</v>
@@ -3668,7 +3661,7 @@
         <v>89</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D97" s="3">
         <v>50124593</v>
@@ -3686,7 +3679,7 @@
         <v>90</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="3">
         <v>26502067</v>
@@ -3704,7 +3697,7 @@
         <v>91</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="3">
         <v>91919343</v>
@@ -3722,7 +3715,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D100" s="3">
         <v>70015196</v>
@@ -3740,7 +3733,7 @@
         <v>93</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D101" s="3">
         <v>50569706</v>
@@ -3758,7 +3751,7 @@
         <v>94</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" s="3">
         <v>89127360</v>
@@ -3776,7 +3769,7 @@
         <v>95</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" s="3">
         <v>19153146</v>
@@ -3794,7 +3787,7 @@
         <v>96</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D104" s="3">
         <v>81967545</v>
@@ -3812,7 +3805,7 @@
         <v>97</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="3">
         <v>21536949</v>
@@ -3830,7 +3823,7 @@
         <v>98</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="3">
         <v>29386000</v>
@@ -3848,7 +3841,7 @@
         <v>99</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D107" s="3">
         <v>88729981</v>
@@ -3866,7 +3859,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D108" s="3">
         <v>52028699</v>
@@ -3884,7 +3877,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="3">
         <v>24922386</v>
@@ -3902,7 +3895,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" s="3">
         <v>98953262</v>
@@ -3920,7 +3913,7 @@
         <v>103</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" s="3">
         <v>48005605</v>
@@ -3938,7 +3931,7 @@
         <v>104</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D112" s="3">
         <v>32526294</v>
@@ -3956,7 +3949,7 @@
         <v>105</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" s="3">
         <v>50111736</v>
@@ -3974,7 +3967,7 @@
         <v>106</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" s="3">
         <v>77993025</v>
@@ -3992,7 +3985,7 @@
         <v>107</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D115" s="3">
         <v>13781478</v>
@@ -4010,7 +4003,7 @@
         <v>108</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D116" s="3">
         <v>73403345</v>
@@ -4028,7 +4021,7 @@
         <v>109</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D117" s="3">
         <v>54388553</v>
@@ -4046,7 +4039,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D118" s="3">
         <v>63276768</v>
@@ -4064,7 +4057,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D119" s="3">
         <v>44844280</v>
@@ -4082,7 +4075,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D120" s="3">
         <v>33815838</v>
@@ -4100,7 +4093,7 @@
         <v>113</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D121" s="3">
         <v>62460454</v>
@@ -4118,7 +4111,7 @@
         <v>114</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D122" s="3">
         <v>28737126</v>
@@ -4136,7 +4129,7 @@
         <v>115</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D123" s="3">
         <v>59276738</v>
@@ -4154,7 +4147,7 @@
         <v>116</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D124" s="3">
         <v>17532852</v>
@@ -4172,7 +4165,7 @@
         <v>117</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D125" s="3">
         <v>38675777</v>
@@ -4190,7 +4183,7 @@
         <v>118</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" s="3">
         <v>59905592</v>
@@ -4208,7 +4201,7 @@
         <v>119</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D127" s="3">
         <v>39118176</v>
@@ -4226,7 +4219,7 @@
         <v>120</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D128" s="3">
         <v>42105772</v>
@@ -4244,7 +4237,7 @@
         <v>121</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D129" s="3">
         <v>61269834</v>
@@ -4262,7 +4255,7 @@
         <v>122</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D130" s="3">
         <v>61804298</v>
@@ -4280,7 +4273,7 @@
         <v>123</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D131" s="3">
         <v>94906873</v>
@@ -4298,7 +4291,7 @@
         <v>124</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D132" s="3">
         <v>97755324</v>
@@ -4316,7 +4309,7 @@
         <v>125</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D133" s="3">
         <v>94462881</v>
@@ -4334,7 +4327,7 @@
         <v>126</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D134" s="3">
         <v>42305410</v>
@@ -4352,7 +4345,7 @@
         <v>127</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D135" s="3">
         <v>26732928</v>
@@ -4370,7 +4363,7 @@
         <v>128</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D136" s="3">
         <v>50456809</v>
@@ -4388,7 +4381,7 @@
         <v>129</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D137" s="3">
         <v>23128882</v>
@@ -4406,7 +4399,7 @@
         <v>130</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D138" s="3">
         <v>13339354</v>
@@ -4424,7 +4417,7 @@
         <v>131</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D139" s="3">
         <v>28517818</v>
@@ -4442,7 +4435,7 @@
         <v>132</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="3">
         <v>39779621</v>
@@ -4460,7 +4453,7 @@
         <v>133</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D141" s="3">
         <v>49463028</v>
@@ -4478,7 +4471,7 @@
         <v>134</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D142" s="3">
         <v>11505575</v>
@@ -4496,7 +4489,7 @@
         <v>135</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D143" s="3">
         <v>90450577</v>
@@ -4514,7 +4507,7 @@
         <v>136</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D144" s="3">
         <v>52664126</v>
@@ -4532,7 +4525,7 @@
         <v>137</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D145" s="3">
         <v>26345002</v>
@@ -4550,7 +4543,7 @@
         <v>138</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D146" s="3">
         <v>18018372</v>
@@ -4568,7 +4561,7 @@
         <v>139</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D147" s="3">
         <v>63053309</v>
@@ -4586,7 +4579,7 @@
         <v>140</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D148" s="3">
         <v>89205430</v>
@@ -4604,7 +4597,7 @@
         <v>141</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D149" s="3">
         <v>91785377</v>
@@ -4622,7 +4615,7 @@
         <v>142</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D150" s="3">
         <v>34003497</v>
@@ -4640,7 +4633,7 @@
         <v>143</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D151" s="3">
         <v>45708705</v>
@@ -4658,7 +4651,7 @@
         <v>144</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D152" s="3">
         <v>16425165</v>
@@ -4676,7 +4669,7 @@
         <v>145</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D153" s="3">
         <v>30977859</v>
@@ -4694,7 +4687,7 @@
         <v>146</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D154" s="3">
         <v>40418745</v>
@@ -4712,7 +4705,7 @@
         <v>147</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D155" s="3">
         <v>48046095</v>
@@ -4730,7 +4723,7 @@
         <v>148</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D156" s="3">
         <v>82930269</v>
@@ -4748,7 +4741,7 @@
         <v>149</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D157" s="3">
         <v>83597208</v>
@@ -4766,7 +4759,7 @@
         <v>150</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D158" s="3">
         <v>15118156</v>
@@ -4784,7 +4777,7 @@
         <v>151</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D159" s="3">
         <v>44712108</v>
@@ -4802,7 +4795,7 @@
         <v>152</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D160" s="3">
         <v>35527834</v>
@@ -4820,7 +4813,7 @@
         <v>153</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D161" s="3">
         <v>54682258</v>
@@ -4838,7 +4831,7 @@
         <v>154</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D162" s="3">
         <v>24242763</v>
@@ -4856,7 +4849,7 @@
         <v>155</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D163" s="3">
         <v>34836461</v>
@@ -4874,7 +4867,7 @@
         <v>156</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D164" s="3">
         <v>61507780</v>
@@ -4892,7 +4885,7 @@
         <v>157</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D165" s="3">
         <v>39002523</v>
@@ -4910,7 +4903,7 @@
         <v>158</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D166" s="3">
         <v>11461063</v>
@@ -4928,7 +4921,7 @@
         <v>159</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D167" s="3">
         <v>17166165</v>
@@ -4946,7 +4939,7 @@
         <v>160</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D168" s="3">
         <v>79106874</v>
@@ -4964,7 +4957,7 @@
         <v>161</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D169" s="3">
         <v>98402870</v>
@@ -4982,7 +4975,7 @@
         <v>162</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D170" s="3">
         <v>56728586</v>
@@ -5000,7 +4993,7 @@
         <v>163</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D171" s="3">
         <v>18991990</v>
@@ -5014,21 +5007,13 @@
       <c r="L171" s="1"/>
     </row>
     <row r="172" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="3">
-        <v>164</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D172" s="3">
-        <v>45015953</v>
-      </c>
-      <c r="E172" s="6">
-        <v>115.55</v>
-      </c>
-      <c r="F172" s="7">
-        <v>38683</v>
-      </c>
+      <c r="B172" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="16"/>
       <c r="L172" s="1"/>
     </row>
     <row r="173" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5036,7 +5021,7 @@
         <v>165</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D173" s="3">
         <v>75096439</v>
@@ -5054,7 +5039,7 @@
         <v>166</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D174" s="3">
         <v>28669688</v>
@@ -5072,7 +5057,7 @@
         <v>167</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D175" s="3">
         <v>61160770</v>
@@ -5090,7 +5075,7 @@
         <v>168</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D176" s="3">
         <v>27992177</v>
@@ -5108,7 +5093,7 @@
         <v>169</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D177" s="3">
         <v>58777150</v>
@@ -5126,7 +5111,7 @@
         <v>170</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D178" s="3">
         <v>56232798</v>
@@ -5144,7 +5129,7 @@
         <v>171</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D179" s="3">
         <v>11250627</v>
@@ -5162,7 +5147,7 @@
         <v>172</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D180" s="3">
         <v>17984773</v>
@@ -5180,7 +5165,7 @@
         <v>173</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D181" s="3">
         <v>31531747</v>
@@ -5198,7 +5183,7 @@
         <v>174</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D182" s="3">
         <v>80797002</v>
@@ -5216,7 +5201,7 @@
         <v>175</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D183" s="3">
         <v>54834991</v>
@@ -5234,7 +5219,7 @@
         <v>176</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D184" s="3">
         <v>63201478</v>
@@ -5252,7 +5237,7 @@
         <v>177</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D185" s="3">
         <v>72564996</v>
@@ -5270,7 +5255,7 @@
         <v>178</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D186" s="3">
         <v>69308355</v>
@@ -5288,7 +5273,7 @@
         <v>179</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D187" s="3">
         <v>70783263</v>
@@ -5306,7 +5291,7 @@
         <v>180</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D188" s="3">
         <v>84468024</v>
@@ -5324,7 +5309,7 @@
         <v>181</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D189" s="3">
         <v>78512558</v>
@@ -5342,7 +5327,7 @@
         <v>182</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D190" s="3">
         <v>91582820</v>
@@ -5360,7 +5345,7 @@
         <v>183</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D191" s="3">
         <v>33727622</v>
@@ -5378,7 +5363,7 @@
         <v>184</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D192" s="3">
         <v>29736995</v>
@@ -5396,7 +5381,7 @@
         <v>185</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D193" s="3">
         <v>49272175</v>
@@ -5414,7 +5399,7 @@
         <v>186</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D194" s="3">
         <v>86206948</v>
@@ -5432,7 +5417,7 @@
         <v>187</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D195" s="3">
         <v>37275812</v>
@@ -5450,7 +5435,7 @@
         <v>188</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D196" s="3">
         <v>59549255</v>
@@ -5468,7 +5453,7 @@
         <v>189</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D197" s="3">
         <v>74314674</v>
@@ -5486,7 +5471,7 @@
         <v>190</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D198" s="3">
         <v>54659628</v>
@@ -5504,7 +5489,7 @@
         <v>191</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D199" s="3">
         <v>68398997</v>
@@ -5522,7 +5507,7 @@
         <v>192</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D200" s="3">
         <v>32184645</v>
@@ -5540,7 +5525,7 @@
         <v>193</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D201" s="3">
         <v>95559239</v>
@@ -5558,7 +5543,7 @@
         <v>194</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D202" s="3">
         <v>89818458</v>
@@ -5576,7 +5561,7 @@
         <v>195</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D203" s="3">
         <v>92520832</v>
@@ -5594,7 +5579,7 @@
         <v>196</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D204" s="3">
         <v>93484471</v>
@@ -5612,7 +5597,7 @@
         <v>197</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D205" s="3">
         <v>49185104</v>
@@ -5630,7 +5615,7 @@
         <v>198</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D206" s="3">
         <v>29643806</v>
@@ -5648,7 +5633,7 @@
         <v>199</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D207" s="3">
         <v>86192840</v>
@@ -5666,7 +5651,7 @@
         <v>200</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D208" s="3">
         <v>90456806</v>
@@ -5684,7 +5669,7 @@
         <v>201</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D209" s="3">
         <v>10665823</v>
@@ -5702,7 +5687,7 @@
         <v>202</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D210" s="3">
         <v>40142626</v>
@@ -5720,7 +5705,7 @@
         <v>203</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D211" s="3">
         <v>46198928</v>
@@ -5738,7 +5723,7 @@
         <v>204</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D212" s="3">
         <v>67683147</v>
@@ -5756,7 +5741,7 @@
         <v>205</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D213" s="3">
         <v>78323615</v>
@@ -5774,7 +5759,7 @@
         <v>206</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D214" s="3">
         <v>71604482</v>
@@ -5792,7 +5777,7 @@
         <v>207</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D215" s="3">
         <v>21377229</v>
@@ -5810,7 +5795,7 @@
         <v>208</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D216" s="3">
         <v>98229269</v>
@@ -5828,7 +5813,7 @@
         <v>209</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D217" s="3">
         <v>69297822</v>
@@ -5846,7 +5831,7 @@
         <v>210</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D218" s="3">
         <v>42217519</v>
@@ -5864,7 +5849,7 @@
         <v>211</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D219" s="3">
         <v>91720874</v>
@@ -5882,7 +5867,7 @@
         <v>212</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D220" s="3">
         <v>95249802</v>
@@ -5900,7 +5885,7 @@
         <v>213</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D221" s="3">
         <v>43425438</v>
@@ -5918,7 +5903,7 @@
         <v>214</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D222" s="3">
         <v>46805127</v>
@@ -5936,7 +5921,7 @@
         <v>215</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D223" s="3">
         <v>44161842</v>
@@ -5954,7 +5939,7 @@
         <v>216</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D224" s="3">
         <v>53918111</v>
@@ -5972,7 +5957,7 @@
         <v>217</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D225" s="3">
         <v>23109011</v>
@@ -5990,7 +5975,7 @@
         <v>218</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D226" s="3">
         <v>14478063</v>
@@ -6008,7 +5993,7 @@
         <v>219</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D227" s="3">
         <v>10256273</v>
@@ -6026,7 +6011,7 @@
         <v>220</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D228" s="3">
         <v>59492264</v>
@@ -6044,7 +6029,7 @@
         <v>221</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D229" s="3">
         <v>32151940</v>
@@ -6062,7 +6047,7 @@
         <v>222</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D230" s="3">
         <v>79338741</v>
@@ -6080,7 +6065,7 @@
         <v>223</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D231" s="3">
         <v>98658486</v>
@@ -6098,7 +6083,7 @@
         <v>224</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D232" s="3">
         <v>55943749</v>
@@ -6116,7 +6101,7 @@
         <v>225</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D233" s="3">
         <v>35096414</v>
@@ -6134,7 +6119,7 @@
         <v>226</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D234" s="3">
         <v>15835944</v>
@@ -6152,7 +6137,7 @@
         <v>227</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D235" s="3">
         <v>60417162</v>
@@ -6170,7 +6155,7 @@
         <v>228</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D236" s="3">
         <v>15679491</v>
@@ -6188,7 +6173,7 @@
         <v>229</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D237" s="3">
         <v>43426001</v>
@@ -6206,7 +6191,7 @@
         <v>230</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D238" s="3">
         <v>51603135</v>
@@ -6224,7 +6209,7 @@
         <v>231</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D239" s="3">
         <v>10628913</v>
@@ -6242,7 +6227,7 @@
         <v>232</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D240" s="3">
         <v>87267816</v>
@@ -6260,7 +6245,7 @@
         <v>233</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D241" s="3">
         <v>40367166</v>
@@ -6278,7 +6263,7 @@
         <v>234</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D242" s="3">
         <v>42908182</v>
@@ -6296,7 +6281,7 @@
         <v>235</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D243" s="3">
         <v>95843779</v>
@@ -6314,7 +6299,7 @@
         <v>236</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D244" s="3">
         <v>16375247</v>
@@ -6332,7 +6317,7 @@
         <v>237</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D245" s="3">
         <v>84651784</v>
@@ -6350,7 +6335,7 @@
         <v>238</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D246" s="3">
         <v>57743003</v>
@@ -6368,7 +6353,7 @@
         <v>239</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D247" s="3">
         <v>68385577</v>
@@ -6386,7 +6371,7 @@
         <v>240</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D248" s="3">
         <v>25762223</v>
@@ -6404,7 +6389,7 @@
         <v>241</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D249" s="3">
         <v>80476161</v>
@@ -6422,7 +6407,7 @@
         <v>242</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D250" s="3">
         <v>88118535</v>
@@ -6440,7 +6425,7 @@
         <v>243</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D251" s="3">
         <v>26855671</v>
@@ -6458,7 +6443,7 @@
         <v>244</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D252" s="3">
         <v>40208076</v>
@@ -6476,7 +6461,7 @@
         <v>245</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D253" s="3">
         <v>50369676</v>
@@ -6494,7 +6479,7 @@
         <v>246</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D254" s="3">
         <v>50535912</v>
@@ -6512,7 +6497,7 @@
         <v>247</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D255" s="3">
         <v>88568125</v>
@@ -6530,7 +6515,7 @@
         <v>248</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D256" s="3">
         <v>70647263</v>
@@ -6548,7 +6533,7 @@
         <v>249</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D257" s="3">
         <v>19697564</v>
@@ -6566,7 +6551,7 @@
         <v>250</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D258" s="3">
         <v>35579106</v>
@@ -6584,7 +6569,7 @@
         <v>251</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D259" s="3">
         <v>13395154</v>
@@ -6602,7 +6587,7 @@
         <v>252</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D260" s="3">
         <v>89694345</v>
@@ -6620,7 +6605,7 @@
         <v>253</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D261" s="3">
         <v>93608039</v>
@@ -6638,7 +6623,7 @@
         <v>254</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D262" s="3">
         <v>75369245</v>
@@ -6656,7 +6641,7 @@
         <v>255</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D263" s="3">
         <v>92040323</v>
@@ -6674,7 +6659,7 @@
         <v>256</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D264" s="3">
         <v>42154702</v>
@@ -6692,7 +6677,7 @@
         <v>257</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D265" s="3">
         <v>64411143</v>
@@ -6710,7 +6695,7 @@
         <v>258</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D266" s="3">
         <v>23516181</v>
@@ -6728,7 +6713,7 @@
         <v>259</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D267" s="3">
         <v>95510051</v>
@@ -6746,7 +6731,7 @@
         <v>260</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D268" s="3">
         <v>40805644</v>
@@ -6764,7 +6749,7 @@
         <v>261</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D269" s="3">
         <v>46947985</v>
@@ -6782,7 +6767,7 @@
         <v>262</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D270" s="3">
         <v>89654167</v>
@@ -6800,7 +6785,7 @@
         <v>263</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D271" s="3">
         <v>76061972</v>
@@ -6818,7 +6803,7 @@
         <v>264</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D272" s="3">
         <v>73177217</v>
@@ -6836,7 +6821,7 @@
         <v>265</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D273" s="3">
         <v>47548978</v>
@@ -6854,7 +6839,7 @@
         <v>266</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D274" s="3">
         <v>11440198</v>
@@ -6872,7 +6857,7 @@
         <v>267</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D275" s="3">
         <v>28056582</v>
@@ -6890,7 +6875,7 @@
         <v>268</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D276" s="3">
         <v>31730961</v>
@@ -6908,7 +6893,7 @@
         <v>269</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D277" s="3">
         <v>76932523</v>
@@ -6926,7 +6911,7 @@
         <v>270</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D278" s="3">
         <v>66739781</v>
@@ -6944,7 +6929,7 @@
         <v>271</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D279" s="3">
         <v>60304316</v>
@@ -6962,7 +6947,7 @@
         <v>272</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D280" s="3">
         <v>87137009</v>
@@ -6980,7 +6965,7 @@
         <v>273</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D281" s="3">
         <v>49969199</v>
@@ -6998,7 +6983,7 @@
         <v>274</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D282" s="3">
         <v>91214101</v>
@@ -7016,7 +7001,7 @@
         <v>275</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D283" s="3">
         <v>33769441</v>
@@ -7034,7 +7019,7 @@
         <v>276</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D284" s="3">
         <v>68221089</v>
@@ -7052,7 +7037,7 @@
         <v>277</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D285" s="3">
         <v>77471130</v>
@@ -7070,7 +7055,7 @@
         <v>278</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D286" s="3">
         <v>41146316</v>
@@ -7088,7 +7073,7 @@
         <v>279</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D287" s="3">
         <v>12328665</v>
@@ -7106,7 +7091,7 @@
         <v>280</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D288" s="3">
         <v>60173882</v>
@@ -7124,7 +7109,7 @@
         <v>281</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D289" s="3">
         <v>38100689</v>
@@ -7142,7 +7127,7 @@
         <v>282</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D290" s="3">
         <v>58220549</v>
@@ -7160,7 +7145,7 @@
         <v>283</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D291" s="3">
         <v>63533940</v>
@@ -7178,7 +7163,7 @@
         <v>284</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D292" s="3">
         <v>35605559</v>
@@ -7196,7 +7181,7 @@
         <v>285</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D293" s="3">
         <v>64958385</v>
@@ -7214,7 +7199,7 @@
         <v>286</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D294" s="3">
         <v>81553154</v>
@@ -7232,7 +7217,7 @@
         <v>287</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D295" s="3">
         <v>27192234</v>
@@ -7250,7 +7235,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D296" s="3">
         <v>75407583</v>
@@ -7268,7 +7253,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D297" s="3">
         <v>46570770</v>
@@ -7286,7 +7271,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D298" s="3">
         <v>84664486</v>
@@ -7304,7 +7289,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D299" s="3">
         <v>43083388</v>
@@ -7322,7 +7307,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D300" s="3">
         <v>87249527</v>
@@ -7340,7 +7325,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D301" s="3">
         <v>86984440</v>
@@ -7358,7 +7343,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D302" s="3">
         <v>92238614</v>
@@ -7376,7 +7361,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D303" s="3">
         <v>59713387</v>
@@ -7394,7 +7379,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D304" s="3">
         <v>76094251</v>
@@ -7412,7 +7397,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D305" s="3">
         <v>88487517</v>
@@ -7430,7 +7415,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D306" s="3">
         <v>33656966</v>
@@ -7448,7 +7433,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D307" s="3">
         <v>52411560</v>
@@ -7466,7 +7451,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D308" s="3">
         <v>44732312</v>
@@ -7484,7 +7469,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D309" s="3">
         <v>65359786</v>
@@ -7502,7 +7487,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D310" s="3">
         <v>57741205</v>
@@ -7520,7 +7505,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D311" s="3">
         <v>60251405</v>
@@ -7538,7 +7523,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D312" s="3">
         <v>35887293</v>
@@ -7556,7 +7541,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D313" s="3">
         <v>64910039</v>
@@ -7574,7 +7559,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D314" s="3">
         <v>21244988</v>
@@ -7592,7 +7577,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D315" s="3">
         <v>39400730</v>
@@ -7610,7 +7595,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D316" s="3">
         <v>67902112</v>
@@ -7628,7 +7613,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D317" s="3">
         <v>99718640</v>
@@ -7646,7 +7631,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D318" s="3">
         <v>96845511</v>
@@ -7664,7 +7649,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D319" s="3">
         <v>83088121</v>
@@ -7682,7 +7667,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D320" s="3">
         <v>64938670</v>
@@ -7700,7 +7685,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D321" s="3">
         <v>14567342</v>
@@ -7718,7 +7703,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D322" s="3">
         <v>37862788</v>
@@ -7736,7 +7721,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D323" s="3">
         <v>43705192</v>
@@ -7754,7 +7739,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D324" s="3">
         <v>42935254</v>
@@ -7772,7 +7757,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D325" s="3">
         <v>36037270</v>
@@ -7790,7 +7775,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D326" s="3">
         <v>82687992</v>
@@ -7808,7 +7793,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D327" s="3">
         <v>46104319</v>
@@ -7826,7 +7811,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D328" s="3">
         <v>40470474</v>
@@ -7844,7 +7829,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D329" s="3">
         <v>49707745</v>
@@ -7862,7 +7847,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D330" s="3">
         <v>99228023</v>
@@ -7880,7 +7865,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D331" s="3">
         <v>68981265</v>
@@ -7898,7 +7883,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D332" s="3">
         <v>52817161</v>
@@ -7916,7 +7901,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D333" s="3">
         <v>32988640</v>
@@ -7934,7 +7919,7 @@
         <v>326</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D334" s="3">
         <v>37969824</v>
@@ -7952,7 +7937,7 @@
         <v>327</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D335" s="3">
         <v>76573953</v>
@@ -7970,7 +7955,7 @@
         <v>328</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D336" s="3">
         <v>64266760</v>
@@ -7988,7 +7973,7 @@
         <v>329</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D337" s="3">
         <v>11898034</v>
@@ -8006,7 +7991,7 @@
         <v>330</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D338" s="3">
         <v>45934273</v>
@@ -8024,7 +8009,7 @@
         <v>331</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D339" s="3">
         <v>56925195</v>
@@ -8042,7 +8027,7 @@
         <v>332</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D340" s="3">
         <v>79114974</v>
@@ -8060,7 +8045,7 @@
         <v>333</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D341" s="3">
         <v>88877878</v>
@@ -8078,7 +8063,7 @@
         <v>334</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D342" s="3">
         <v>32059271</v>
@@ -8096,7 +8081,7 @@
         <v>335</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D343" s="3">
         <v>82568310</v>
@@ -8114,7 +8099,7 @@
         <v>336</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D344" s="3">
         <v>27964780</v>
@@ -8132,7 +8117,7 @@
         <v>337</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D345" s="3">
         <v>21471702</v>
@@ -8150,7 +8135,7 @@
         <v>338</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D346" s="3">
         <v>77880891</v>
@@ -8168,7 +8153,7 @@
         <v>339</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D347" s="3">
         <v>55567968</v>
@@ -8186,7 +8171,7 @@
         <v>340</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D348" s="3">
         <v>86702797</v>
@@ -8204,7 +8189,7 @@
         <v>341</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D349" s="3">
         <v>27145028</v>
@@ -8222,7 +8207,7 @@
         <v>342</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D350" s="3">
         <v>92452055</v>
@@ -8240,7 +8225,7 @@
         <v>343</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D351" s="3">
         <v>47946906</v>
@@ -8258,7 +8243,7 @@
         <v>344</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D352" s="3">
         <v>68097956</v>
@@ -8276,7 +8261,7 @@
         <v>345</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D353" s="3">
         <v>96840769</v>
@@ -8294,7 +8279,7 @@
         <v>346</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D354" s="3">
         <v>44332598</v>
@@ -8312,7 +8297,7 @@
         <v>347</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D355" s="3">
         <v>37396832</v>
@@ -8330,7 +8315,7 @@
         <v>348</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D356" s="3">
         <v>10749103</v>
@@ -8348,7 +8333,7 @@
         <v>349</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D357" s="3">
         <v>77467395</v>
@@ -8366,7 +8351,7 @@
         <v>350</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D358" s="3">
         <v>75043067</v>
@@ -8384,7 +8369,7 @@
         <v>351</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D359" s="3">
         <v>50297282</v>
@@ -8402,7 +8387,7 @@
         <v>352</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D360" s="3">
         <v>75789593</v>
@@ -8420,7 +8405,7 @@
         <v>353</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D361" s="3">
         <v>17017341</v>
@@ -8438,7 +8423,7 @@
         <v>354</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D362" s="3">
         <v>17327221</v>
@@ -8456,7 +8441,7 @@
         <v>355</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D363" s="3">
         <v>94752421</v>
@@ -8474,7 +8459,7 @@
         <v>356</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D364" s="3">
         <v>48622749</v>
@@ -8492,7 +8477,7 @@
         <v>357</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D365" s="3">
         <v>57036623</v>
@@ -8510,7 +8495,7 @@
         <v>358</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D366" s="3">
         <v>62559656</v>
@@ -8528,7 +8513,7 @@
         <v>359</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D367" s="3">
         <v>76859805</v>
@@ -8546,7 +8531,7 @@
         <v>360</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D368" s="3">
         <v>90966649</v>
@@ -8564,7 +8549,7 @@
         <v>361</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D369" s="3">
         <v>95914796</v>
@@ -8582,7 +8567,7 @@
         <v>362</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D370" s="3">
         <v>60689575</v>
@@ -8600,7 +8585,7 @@
         <v>363</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D371" s="3">
         <v>87648884</v>
@@ -8618,7 +8603,7 @@
         <v>364</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D372" s="3">
         <v>86878399</v>
@@ -8636,7 +8621,7 @@
         <v>365</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D373" s="3">
         <v>77994796</v>
@@ -8654,7 +8639,7 @@
         <v>366</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D374" s="3">
         <v>19391363</v>
@@ -8672,7 +8657,7 @@
         <v>367</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D375" s="3">
         <v>71668189</v>
@@ -8690,7 +8675,7 @@
         <v>368</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D376" s="3">
         <v>67814219</v>
@@ -8708,7 +8693,7 @@
         <v>369</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D377" s="3">
         <v>19332556</v>
@@ -8726,7 +8711,7 @@
         <v>370</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D378" s="3">
         <v>89183205</v>
@@ -8744,7 +8729,7 @@
         <v>371</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D379" s="3">
         <v>31944321</v>
@@ -8762,7 +8747,7 @@
         <v>372</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D380" s="3">
         <v>84469301</v>
@@ -8780,7 +8765,7 @@
         <v>373</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D381" s="3">
         <v>39579459</v>
@@ -8798,7 +8783,7 @@
         <v>374</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D382" s="3">
         <v>78559435</v>
@@ -8816,7 +8801,7 @@
         <v>375</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D383" s="3">
         <v>48140361</v>
@@ -8834,7 +8819,7 @@
         <v>376</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D384" s="3">
         <v>60145705</v>
@@ -8852,7 +8837,7 @@
         <v>377</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D385" s="3">
         <v>83806521</v>
@@ -8870,7 +8855,7 @@
         <v>378</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D386" s="3">
         <v>61705571</v>
@@ -8888,7 +8873,7 @@
         <v>379</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D387" s="3">
         <v>36783715</v>
@@ -8906,7 +8891,7 @@
         <v>380</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D388" s="3">
         <v>68817065</v>
@@ -8924,7 +8909,7 @@
         <v>381</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D389" s="3">
         <v>98014609</v>
@@ -8942,7 +8927,7 @@
         <v>382</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D390" s="3">
         <v>34795862</v>
@@ -8960,7 +8945,7 @@
         <v>383</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D391" s="3">
         <v>60291181</v>
@@ -8978,7 +8963,7 @@
         <v>384</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D392" s="3">
         <v>32671929</v>
@@ -8996,7 +8981,7 @@
         <v>385</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D393" s="3">
         <v>69696855</v>
@@ -9014,7 +8999,7 @@
         <v>386</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D394" s="3">
         <v>71999079</v>
@@ -9032,7 +9017,7 @@
         <v>387</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D395" s="3">
         <v>44088323</v>
@@ -9050,7 +9035,7 @@
         <v>388</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D396" s="3">
         <v>27817089</v>
@@ -9068,7 +9053,7 @@
         <v>389</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D397" s="3">
         <v>26275437</v>
@@ -9086,7 +9071,7 @@
         <v>390</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D398" s="3">
         <v>40078961</v>
@@ -9104,7 +9089,7 @@
         <v>391</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D399" s="3">
         <v>43423801</v>
@@ -9122,7 +9107,7 @@
         <v>392</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D400" s="3">
         <v>42975020</v>
@@ -9140,7 +9125,7 @@
         <v>393</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D401" s="3">
         <v>46470556</v>
@@ -9158,7 +9143,7 @@
         <v>394</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D402" s="3">
         <v>33282173</v>
@@ -9176,7 +9161,7 @@
         <v>395</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D403" s="3">
         <v>11091046</v>
@@ -9194,7 +9179,7 @@
         <v>396</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D404" s="3">
         <v>22174831</v>
@@ -9212,7 +9197,7 @@
         <v>397</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D405" s="3">
         <v>52824714</v>
@@ -9230,7 +9215,7 @@
         <v>398</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D406" s="3">
         <v>66012569</v>
@@ -9248,7 +9233,7 @@
         <v>399</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D407" s="3">
         <v>14012098</v>
@@ -9266,7 +9251,7 @@
         <v>400</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D408" s="3">
         <v>71110500</v>
@@ -9284,7 +9269,7 @@
         <v>401</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D409" s="3">
         <v>82287216</v>
@@ -9302,7 +9287,7 @@
         <v>402</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D410" s="3">
         <v>69939767</v>
@@ -9320,7 +9305,7 @@
         <v>403</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D411" s="3">
         <v>13823375</v>
@@ -9338,7 +9323,7 @@
         <v>404</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D412" s="3">
         <v>61235463</v>
@@ -9356,7 +9341,7 @@
         <v>405</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D413" s="3">
         <v>61282187</v>
@@ -9374,7 +9359,7 @@
         <v>406</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D414" s="3">
         <v>19021907</v>
@@ -9392,7 +9377,7 @@
         <v>407</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D415" s="3">
         <v>86947419</v>
@@ -9410,7 +9395,7 @@
         <v>408</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D416" s="3">
         <v>27505213</v>
@@ -9428,7 +9413,7 @@
         <v>409</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D417" s="3">
         <v>42895041</v>
@@ -9446,7 +9431,7 @@
         <v>410</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D418" s="3">
         <v>52090848</v>
@@ -9464,7 +9449,7 @@
         <v>411</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D419" s="3">
         <v>63391001</v>
@@ -9482,7 +9467,7 @@
         <v>412</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D420" s="3">
         <v>83238641</v>
@@ -9500,7 +9485,7 @@
         <v>413</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D421" s="3">
         <v>43170492</v>
@@ -9518,7 +9503,7 @@
         <v>414</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D422" s="3">
         <v>19483539</v>
@@ -9536,7 +9521,7 @@
         <v>415</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D423" s="3">
         <v>50933768</v>
@@ -9554,7 +9539,7 @@
         <v>416</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D424" s="3">
         <v>21553190</v>
@@ -9572,7 +9557,7 @@
         <v>417</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D425" s="3">
         <v>93825357</v>
@@ -9590,7 +9575,7 @@
         <v>418</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D426" s="3">
         <v>90100265</v>
@@ -9608,7 +9593,7 @@
         <v>419</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D427" s="3">
         <v>60688604</v>
@@ -9626,7 +9611,7 @@
         <v>420</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D428" s="3">
         <v>48914142</v>
@@ -9644,7 +9629,7 @@
         <v>421</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D429" s="3">
         <v>40646801</v>
@@ -9662,7 +9647,7 @@
         <v>422</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D430" s="3">
         <v>82072539</v>
@@ -9680,7 +9665,7 @@
         <v>423</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D431" s="3">
         <v>30830547</v>
@@ -9698,7 +9683,7 @@
         <v>424</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D432" s="3">
         <v>11025854</v>
@@ -9716,7 +9701,7 @@
         <v>425</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D433" s="3">
         <v>41851959</v>
@@ -9734,7 +9719,7 @@
         <v>426</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D434" s="3">
         <v>41186423</v>
@@ -9752,7 +9737,7 @@
         <v>427</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D435" s="3">
         <v>48057039</v>
@@ -9770,7 +9755,7 @@
         <v>428</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D436" s="3">
         <v>79591537</v>
@@ -9788,7 +9773,7 @@
         <v>429</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D437" s="3">
         <v>18665905</v>
@@ -9806,7 +9791,7 @@
         <v>430</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D438" s="3">
         <v>42496220</v>
@@ -9824,7 +9809,7 @@
         <v>431</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D439" s="3">
         <v>13378606</v>
@@ -9842,7 +9827,7 @@
         <v>432</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D440" s="3">
         <v>88159142</v>
@@ -9860,7 +9845,7 @@
         <v>433</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D441" s="3">
         <v>11563972</v>
@@ -9878,7 +9863,7 @@
         <v>434</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D442" s="3">
         <v>11114483</v>
@@ -9896,7 +9881,7 @@
         <v>435</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D443" s="3">
         <v>58696000</v>
@@ -9914,7 +9899,7 @@
         <v>436</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D444" s="3">
         <v>39056451</v>
@@ -9932,7 +9917,7 @@
         <v>437</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D445" s="3">
         <v>79246162</v>
@@ -9950,7 +9935,7 @@
         <v>438</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D446" s="3">
         <v>49584332</v>
@@ -9968,7 +9953,7 @@
         <v>439</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D447" s="3">
         <v>26468987</v>
@@ -9986,7 +9971,7 @@
         <v>440</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D448" s="3">
         <v>77376018</v>
@@ -10004,7 +9989,7 @@
         <v>441</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D449" s="3">
         <v>39696032</v>
@@ -10022,7 +10007,7 @@
         <v>442</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D450" s="3">
         <v>26386060</v>
@@ -10040,7 +10025,7 @@
         <v>443</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D451" s="3">
         <v>43237347</v>
@@ -10058,7 +10043,7 @@
         <v>444</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D452" s="3">
         <v>33937968</v>
@@ -10076,7 +10061,7 @@
         <v>445</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D453" s="3">
         <v>24816974</v>
@@ -10094,7 +10079,7 @@
         <v>446</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D454" s="3">
         <v>19962666</v>
@@ -10112,7 +10097,7 @@
         <v>447</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D455" s="3">
         <v>53685780</v>
@@ -10130,7 +10115,7 @@
         <v>448</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D456" s="3">
         <v>66661140</v>
@@ -10148,7 +10133,7 @@
         <v>449</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D457" s="3">
         <v>27278136</v>
@@ -10166,7 +10151,7 @@
         <v>450</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D458" s="3">
         <v>57136802</v>
@@ -10184,7 +10169,7 @@
         <v>451</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D459" s="3">
         <v>42972848</v>
@@ -10202,7 +10187,7 @@
         <v>452</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D460" s="3">
         <v>80460407</v>
@@ -10220,7 +10205,7 @@
         <v>453</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D461" s="3">
         <v>63594900</v>
@@ -10238,7 +10223,7 @@
         <v>454</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D462" s="3">
         <v>19978814</v>
@@ -10256,7 +10241,7 @@
         <v>455</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D463" s="3">
         <v>74295269</v>
@@ -10274,7 +10259,7 @@
         <v>456</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D464" s="3">
         <v>40943071</v>
@@ -10292,7 +10277,7 @@
         <v>457</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D465" s="3">
         <v>84947805</v>
@@ -10310,7 +10295,7 @@
         <v>458</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D466" s="3">
         <v>75107005</v>
@@ -10328,7 +10313,7 @@
         <v>459</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D467" s="3">
         <v>44146015</v>
@@ -10346,7 +10331,7 @@
         <v>460</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D468" s="3">
         <v>51935272</v>
@@ -10364,7 +10349,7 @@
         <v>461</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D469" s="3">
         <v>24886486</v>
@@ -10382,7 +10367,7 @@
         <v>462</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D470" s="3">
         <v>59472011</v>
@@ -10400,7 +10385,7 @@
         <v>463</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D471" s="3">
         <v>59032892</v>
@@ -10418,7 +10403,7 @@
         <v>464</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D472" s="3">
         <v>88325416</v>
@@ -10436,7 +10421,7 @@
         <v>465</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D473" s="3">
         <v>41122294</v>
@@ -10454,7 +10439,7 @@
         <v>466</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D474" s="3">
         <v>94240392</v>
@@ -10472,7 +10457,7 @@
         <v>467</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D475" s="3">
         <v>82632663</v>
@@ -10490,7 +10475,7 @@
         <v>468</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D476" s="3">
         <v>12224517</v>
@@ -10508,7 +10493,7 @@
         <v>469</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D477" s="3">
         <v>30410069</v>
@@ -10526,7 +10511,7 @@
         <v>470</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D478" s="3">
         <v>64956509</v>
@@ -10544,7 +10529,7 @@
         <v>471</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D479" s="3">
         <v>53865723</v>
@@ -10562,7 +10547,7 @@
         <v>472</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D480" s="3">
         <v>24889502</v>
@@ -10580,7 +10565,7 @@
         <v>473</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D481" s="3">
         <v>31244444</v>
@@ -10598,7 +10583,7 @@
         <v>474</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D482" s="3">
         <v>19144471</v>
@@ -10616,7 +10601,7 @@
         <v>475</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D483" s="3">
         <v>76382919</v>
@@ -10634,7 +10619,7 @@
         <v>476</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D484" s="3">
         <v>74498928</v>
@@ -10652,7 +10637,7 @@
         <v>477</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D485" s="3">
         <v>15879162</v>
@@ -10670,7 +10655,7 @@
         <v>478</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D486" s="3">
         <v>84542235</v>
@@ -10688,7 +10673,7 @@
         <v>479</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D487" s="3">
         <v>52152293</v>
@@ -10706,7 +10691,7 @@
         <v>480</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D488" s="3">
         <v>66251107</v>
@@ -10724,7 +10709,7 @@
         <v>481</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D489" s="3">
         <v>80889851</v>
@@ -10742,7 +10727,7 @@
         <v>482</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D490" s="3">
         <v>75407126</v>
@@ -10760,7 +10745,7 @@
         <v>483</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D491" s="3">
         <v>67449141</v>
@@ -10778,7 +10763,7 @@
         <v>484</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D492" s="3">
         <v>17461757</v>
@@ -10796,7 +10781,7 @@
         <v>485</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D493" s="3">
         <v>10273275</v>
@@ -10814,7 +10799,7 @@
         <v>486</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D494" s="3">
         <v>98048847</v>
@@ -10832,7 +10817,7 @@
         <v>487</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D495" s="3">
         <v>24723703</v>
@@ -10850,7 +10835,7 @@
         <v>488</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D496" s="3">
         <v>17954951</v>
@@ -10868,7 +10853,7 @@
         <v>489</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D497" s="3">
         <v>94132303</v>
@@ -10886,7 +10871,7 @@
         <v>490</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D498" s="3">
         <v>79374894</v>
@@ -10904,7 +10889,7 @@
         <v>491</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D499" s="3">
         <v>29859744</v>
@@ -10922,7 +10907,7 @@
         <v>492</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D500" s="3">
         <v>77261664</v>
@@ -10940,7 +10925,7 @@
         <v>493</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D501" s="3">
         <v>32471410</v>
@@ -10958,7 +10943,7 @@
         <v>494</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D502" s="3">
         <v>52184918</v>
@@ -10976,7 +10961,7 @@
         <v>495</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D503" s="3">
         <v>29357103</v>
@@ -10994,7 +10979,7 @@
         <v>496</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D504" s="3">
         <v>96709828</v>
@@ -11012,7 +10997,7 @@
         <v>497</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D505" s="3">
         <v>71197586</v>
@@ -11030,7 +11015,7 @@
         <v>498</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D506" s="3">
         <v>21262681</v>
@@ -11048,7 +11033,7 @@
         <v>499</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D507" s="3">
         <v>26146021</v>
@@ -11066,7 +11051,7 @@
         <v>500</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D508" s="3">
         <v>77334730</v>
@@ -11081,7 +11066,7 @@
     </row>
     <row r="509" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B509" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C509" s="12"/>
       <c r="D509" s="13"/>
@@ -11092,12 +11077,14 @@
       <c r="L509" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B509:D509"/>
     <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B172:F172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
